--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregorioValverdeNava\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregorioValverdeNava\TFM_DemandaElectrica\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746301A-716B-464F-9390-75790EF9423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00D88F-D8AA-4C9D-A82E-6B9295AE2225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BD26BA4-0807-4C79-ABB6-2298BD8CE4EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Modelo</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Hiperparámetros</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>recurrent_units = 110, dense_units = 110, learning_rate = 0.011, epochs = 45, batch_size = 8</t>
+  </si>
+  <si>
+    <t>recurrent_units = 100, dense_units = 90, learning_rate = 0.0115, epochs = 45, batch_size = 8</t>
+  </si>
+  <si>
+    <t>recurrent_units = 110, dense_units = 100, learning_rate = 0.011, epochs = 45, batch_size = 8</t>
+  </si>
+  <si>
+    <t>recurrent_units = 100, dense_units = 110, learning_rate = 0.011, epochs = 45, batch_size = 8</t>
+  </si>
+  <si>
+    <t>recurrent_units = 100, dense_units = 110, learning_rate = 0.011, epochs = 40, batch_size = 8</t>
   </si>
 </sst>
 </file>
@@ -530,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC8408C-B914-465B-8CF8-6F614AF83730}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H31" sqref="A26:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +636,7 @@
         <v>27</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="0" xml:space="preserve"> ROUND(D3/E3, 2)</f>
+        <f t="shared" ref="F3:F31" si="0" xml:space="preserve"> ROUND(D3/E3, 2)</f>
         <v>11.76</v>
       </c>
       <c r="G3">
@@ -1220,6 +1238,168 @@
       </c>
       <c r="H25" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1260.49</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>52.52</v>
+      </c>
+      <c r="G26">
+        <v>803.7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1273.18</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>53.05</v>
+      </c>
+      <c r="G27">
+        <v>686.24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1321.41</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>55.06</v>
+      </c>
+      <c r="G28">
+        <v>702.89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1326.55</v>
+      </c>
+      <c r="E29">
+        <v>24</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>55.27</v>
+      </c>
+      <c r="G29">
+        <v>695.26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1331.28</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>55.47</v>
+      </c>
+      <c r="G30">
+        <v>673.04</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1347.9</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>56.16</v>
+      </c>
+      <c r="G31">
+        <v>628.91999999999996</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
